--- a/DOM_Banner/output/dept0713/Keliegh S Culpepper_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Keliegh S Culpepper_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona - College of Medicine; University of California, San Francisco; ; University of Arizona - College of Medicine; DermPath Diagnostics; University of Arizona - College of Medicine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321452894</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>An Ulcerated Verrucous Plaque on the Leg: A Case Report of Limited Cutaneous Leishmaniasis in Tucson, Arizona</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Social Science Research Network</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>RELX Group (Netherlands)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4342106</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4342106</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376639535</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Limited Cutaneous Leishmaniasis as Ulcerated Verrucous Plaque on Leg, Tucson, Arizona, USA1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Emerging Infectious Diseases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Centers for Disease Control and Prevention</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3201/eid2906.230125</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37209715</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3201/eid2906.230125</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Keliegh S Culpepper_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Keliegh S Culpepper_2023.xlsx
@@ -447,57 +447,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Caitlyn Dagenet, Mitchell Davis, Sean D. Murphy, Rebecca Thiede, Keliegh S. Culpepper, Mohammad Reza Fazel</t>
+          <t>Caitlyn B. Dagenet, Mitchell S. Davis, Sean D. Murphy, Rebecca Thiede, Keliegh S. Culpepper, Mohammad Reza Fazel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>University of Arizona - College of Medicine; University of California, San Francisco; ; University of Arizona - College of Medicine; DermPath Diagnostics; University of Arizona - College of Medicine</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321452894</t>
+          <t>https://openalex.org/W4376639535</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>An Ulcerated Verrucous Plaque on the Leg: A Case Report of Limited Cutaneous Leishmaniasis in Tucson, Arizona</t>
+          <t>Limited Cutaneous Leishmaniasis as Ulcerated Verrucous Plaque on Leg, Tucson, Arizona, USA1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Social Science Research Network</t>
+          <t>Emerging Infectious Diseases</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RELX Group (Netherlands)</t>
+          <t>Centers for Disease Control and Prevention</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4342106</t>
+          <t>https://doi.org/10.3201/eid2906.230125</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37209715</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4342106</t>
+          <t>https://doi.org/10.3201/eid2906.230125</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -534,57 +534,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Caitlyn B. Dagenet, Mitchell S. Davis, Sean D. Murphy, Rebecca Thiede, Keliegh S. Culpepper, Mohammad Reza Fazel</t>
+          <t>Caitlyn Dagenet, Mitchell Davis, Sean D. Murphy, Rebecca Thiede, Keliegh S. Culpepper, Mohammad Reza Fazel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t>University of Arizona - College of Medicine; University of California, San Francisco; ; University of Arizona - College of Medicine; DermPath Diagnostics; University of Arizona - College of Medicine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4376639535</t>
+          <t>https://openalex.org/W4321452894</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Limited Cutaneous Leishmaniasis as Ulcerated Verrucous Plaque on Leg, Tucson, Arizona, USA1</t>
+          <t>An Ulcerated Verrucous Plaque on the Leg: A Case Report of Limited Cutaneous Leishmaniasis in Tucson, Arizona</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Emerging Infectious Diseases</t>
+          <t>Social Science Research Network</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Centers for Disease Control and Prevention</t>
+          <t>RELX Group (Netherlands)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3201/eid2906.230125</t>
+          <t>https://doi.org/10.2139/ssrn.4342106</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37209715</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3201/eid2906.230125</t>
+          <t>https://doi.org/10.2139/ssrn.4342106</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
